--- a/biology/Zoologie/Heteromys_oasicus/Heteromys_oasicus.xlsx
+++ b/biology/Zoologie/Heteromys_oasicus/Heteromys_oasicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteromys oasicus est une espèce de Rongeurs de la famille des Heteromyidae qui regroupe les souris kangourou d'Amérique.
-Ce petit mammifère fait partie des Souris épineuses à poches[1], c'est-à-dire à larges abajoues.
+Ce petit mammifère fait partie des Souris épineuses à poches, c'est-à-dire à larges abajoues.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la péninsule de Paraguaná dans l'État de Falcón au Venezuela[2]. 
-La destruction progressive de son habitat met l'espèce en danger de disparition[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la péninsule de Paraguaná dans l'État de Falcón au Venezuela. 
+La destruction progressive de son habitat met l'espèce en danger de disparition.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite pour la première fois en 2003 par le biologiste américain Robert P. Anderson.
 </t>
